--- a/src/test/resources/createUserTestData.xlsx
+++ b/src/test/resources/createUserTestData.xlsx
@@ -632,6 +632,7 @@
   <cols>
     <col customWidth="1" min="2" max="2" width="28.57421875"/>
     <col customWidth="1" min="3" max="3" width="9.140625"/>
+    <col bestFit="1" min="6" max="6" width="11.09375"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.25">
